--- a/resources/test_data/VM_TestData_FileUploadSample.xlsx
+++ b/resources/test_data/VM_TestData_FileUploadSample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praneethm\git\VMSeleniumFramework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BE30125-B52C-4B60-A695-21A1C1DEACC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04F5949B-3F29-40CD-B5EB-C6C2CC9AF97F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14055" windowHeight="2055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TestCaseNumber</t>
   </si>
@@ -52,10 +52,7 @@
     <t>Flow</t>
   </si>
   <si>
-    <t>Upload</t>
-  </si>
-  <si>
-    <t>TermsOfService</t>
+    <t>FileUpload</t>
   </si>
   <si>
     <t>Send</t>
@@ -64,13 +61,10 @@
     <t>Locators</t>
   </si>
   <si>
-    <t>id=uploadfile_0</t>
-  </si>
-  <si>
-    <t>id=terms</t>
-  </si>
-  <si>
-    <t>name=send</t>
+    <t>//*[@id="item"]/form/table/tbody/tr[1]/td[2]/input</t>
+  </si>
+  <si>
+    <t>//*[@id="button"]</t>
   </si>
   <si>
     <t>ExplicitWait</t>
@@ -132,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,12 +149,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -174,7 +181,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -873,16 +881,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="58.5703125" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
     <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -904,10 +912,6 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -915,169 +919,141 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="6"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="7"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
